--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1100599.588009826</v>
+        <v>1098220.663804822</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.652568600271</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567413</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>72.08802744677256</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>294.3263193288736</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>19.49168497188395</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677254</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>288.9312908991064</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>273.8361873678177</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.7048515690718</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.298944550951405</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.12826114975326</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>97.62850989681789</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4526205097952</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>54.60584927464175</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.4580811057958</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>32.80808106974521</v>
+        <v>47.2963557673352</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>148.1185786361432</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>11.7907648167904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.11729550773411</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>96.36494467178768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>93.85094319419976</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365957</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659130575</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1949878935049</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>23.10998325717217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3715,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>174.6548851776591</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>147.3642529779079</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.6471314173121</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>117.8112368377027</v>
+        <v>98.74897854931388</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4398,16 +4398,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>751.950822890278</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779422</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955491</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>307.0311423976387</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>139.3283057723577</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820605</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880193</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.585586273443</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>774.7973336751986</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>363.8114288855911</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820605</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>751.950822890278</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779422</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723577</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1867.11669882964</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1498.154181889228</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1139.888483282477</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>754.1002306842331</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>343.1143258946256</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805451</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.3652315764772</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654151</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V13" t="n">
-        <v>896.7958264482644</v>
+        <v>1118.825349356468</v>
       </c>
       <c r="W13" t="n">
-        <v>896.7958264482644</v>
+        <v>1094.453368397121</v>
       </c>
       <c r="X13" t="n">
-        <v>668.8062755502471</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="Y13" t="n">
-        <v>448.0136964067169</v>
+        <v>866.4638174991042</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.0784739605364</v>
+        <v>675.661303923575</v>
       </c>
       <c r="C16" t="n">
-        <v>796.1422910326295</v>
+        <v>675.661303923575</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>525.5446645112378</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>377.6315709288447</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,25 +5434,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5470,16 +5470,16 @@
         <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.871053104067</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.871053104067</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.871053104067</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.0784739605364</v>
+        <v>675.661303923575</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0193492433381</v>
+        <v>459.6221006434198</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>290.6859177155129</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>290.6859177155129</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>290.6859177155129</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687997</v>
@@ -5698,25 +5698,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1260.294853324301</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1040.693388347242</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1040.693388347242</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0089001413554</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0089001413554</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0193492433381</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.0193492433381</v>
+        <v>641.2705654736604</v>
       </c>
     </row>
     <row r="20">
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731411</v>
+        <v>1129.437033731432</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391419</v>
+        <v>1546.84690539144</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100404</v>
+        <v>1916.376186100425</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673963</v>
+        <v>2209.051641673984</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400862</v>
+        <v>2328.249876400883</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653265</v>
+        <v>2261.204172653286</v>
       </c>
       <c r="S22" t="n">
-        <v>2078.349338308169</v>
+        <v>2261.204172653286</v>
       </c>
       <c r="T22" t="n">
-        <v>2045.209862480144</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="23">
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1028.490320362743</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>859.5541374348365</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>709.4374980225008</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>561.5244044401077</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>414.6344569421973</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>247.4383576570772</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>105.7265264992753</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2386.238542663355</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2203.383708318259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.7822433412</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>878.3568999154069</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>709.4207169875</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>559.3040775751642</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,10 +7014,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
         <v>776.1751066403293</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>916.3099000622252</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>747.3737171343183</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>597.2570777219826</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773693</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>117.1600804794589</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>117.1600804794589</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1257.28228971179</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1029.292738813773</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836018</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138415</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9565,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042520492</v>
+        <v>58.597330425226</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>161.9478765476764</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272928</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>262.3947371868377</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>50.98696312139447</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.96842751313604</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986265</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>90.8151987482895</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,25 +23938,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>2.568204895848794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>184.5973692575431</v>
+        <v>170.1090945599531</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>70.46607471595161</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.47507150177513</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.257951202387574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>70.88187642684015</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>52.58301945236941</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>212.9610556929642</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>40.23897475306424</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>117.1847295890517</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>111.8681131589319</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>71.22040037418685</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.5844758430729</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.43558426092518</v>
+        <v>68.49784254931396</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958532.9334857672</v>
+        <v>958532.9334857682</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610653</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963645.8537610651</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>963645.8537610652</v>
+        <v>963645.8537610651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>963645.8537610653</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963645.8537610651</v>
+        <v>963645.8537610652</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="F2" t="n">
         <v>450359.7549792567</v>
@@ -26329,22 +26329,22 @@
         <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
-        <v>462487.4349852687</v>
+        <v>462487.4349852691</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073093</v>
+        <v>14243.58217073125</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26454,7 +26454,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26525,43 +26525,43 @@
         <v>270568.3330065173</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065176</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="E6" t="n">
-        <v>23063.37513931042</v>
+        <v>22968.85660586441</v>
       </c>
       <c r="F6" t="n">
-        <v>348475.836946666</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="G6" t="n">
-        <v>348475.836946666</v>
+        <v>348381.3184132193</v>
       </c>
       <c r="H6" t="n">
-        <v>347121.3229906309</v>
+        <v>347079.5335006887</v>
       </c>
       <c r="I6" t="n">
-        <v>346940.1810259546</v>
+        <v>346905.4431005188</v>
       </c>
       <c r="J6" t="n">
-        <v>129408.9786286772</v>
+        <v>129374.2407032413</v>
       </c>
       <c r="K6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.4431005188</v>
       </c>
       <c r="L6" t="n">
-        <v>346940.1810259546</v>
+        <v>346905.4431005188</v>
       </c>
       <c r="M6" t="n">
-        <v>261885.1530904426</v>
+        <v>261850.4151650069</v>
       </c>
       <c r="N6" t="n">
-        <v>346940.1810259546</v>
+        <v>346905.4431005189</v>
       </c>
       <c r="O6" t="n">
-        <v>346940.1810259547</v>
+        <v>346905.4431005188</v>
       </c>
       <c r="P6" t="n">
-        <v>346940.1810259545</v>
+        <v>346905.4431005188</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>223.078532078198</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.66698746754822</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>116.5954063245799</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>308.2605734982509</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754824</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.80255076437413</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>137.0855382856357</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>24.26439296306545</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>64.81814676751915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168044</v>
+        <v>306.3600965168255</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066219</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
